--- a/online_translators/xlsx_accuracy/google_size_compatibility.xlsx
+++ b/online_translators/xlsx_accuracy/google_size_compatibility.xlsx
@@ -405,10 +405,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4248366013071895</v>
+        <v>0.7642857142857142</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5252525252525253</v>
+        <v>0.3652173913043478</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -417,7 +417,7 @@
       </c>
       <c r="B3" t="s"/>
       <c r="C3" t="n">
-        <v>0.5808080808080808</v>
+        <v>0.6782608695652174</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -425,10 +425,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5081699346405228</v>
+        <v>0.7571428571428571</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5858585858585859</v>
+        <v>0.4260869565217391</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -436,10 +436,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5049019607843137</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5656565656565656</v>
+        <v>0.3565217391304348</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -447,7 +447,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5310457516339869</v>
+        <v>0.5785714285714286</v>
       </c>
       <c r="C6" t="s"/>
     </row>
